--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.920199999999998</v>
+        <v>-6.023199999999997</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.627200000000006</v>
+        <v>8.628400000000006</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.731700000000004</v>
+        <v>4.851000000000003</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.544099999999998</v>
+        <v>5.672299999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.13939999999999</v>
+        <v>13.283</v>
       </c>
     </row>
     <row r="22">
